--- a/管理者用_touchable/logs/集計レポート_20251010-20251012.xlsx
+++ b/管理者用_touchable/logs/集計レポート_20251010-20251012.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="学年組別サマリー" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ユニーク学年組別サマリー" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="滞在記録(元データ)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="日別サマリー" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="利用者別サマリー" sheetId="4" state="visible" r:id="rId4"/>
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,6 +1996,342 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>1時台</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ID_2420303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>中2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>斎藤 香織</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>03:58:12</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>04:56:24（推定）</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>3時台</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ID_2060945</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>高3</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>橋本 恵</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>04:18:37</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>04:18:59</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ID_2060945</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>高3</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>45</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>橋本 恵</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>04:19:16</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>04:19:40（推定）</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ID_2060944</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>高3</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>44</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>西村 陽翔</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>04:23:38</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>04:24:01</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ID_2420206</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>中2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>吉田 大翔</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>04:23:50</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>06:23:50（推定）</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>120</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ID_2240202</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>高1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>鈴木 良子</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>04:30:03</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>06:30:03（推定）</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>120</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>4時台</t>
         </is>
       </c>
     </row>
@@ -2101,9 +2437,7 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>42.1</v>
       </c>
@@ -2136,9 +2470,7 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>17.5</v>
       </c>
@@ -2153,31 +2485,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>155.6</v>
+        <v>118.3</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2822,14 +3154,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>遠藤 幸子</t>
+          <t>吉田 大翔</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -2839,23 +3171,23 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3時台</t>
+          <t>4時台</t>
         </is>
       </c>
       <c r="K15" s="3" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="16">
@@ -2868,11 +3200,11 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>斎藤 香織</t>
+          <t>遠藤 幸子</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2882,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>58.2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2894,7 +3226,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2時台</t>
+          <t>3時台</t>
         </is>
       </c>
       <c r="K16" s="3" t="n">
@@ -2904,44 +3236,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>中3</t>
+          <t>中2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>柴田 学</t>
+          <t>斎藤 香織</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>58.2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>土</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1時台</t>
+          <t>2時台</t>
         </is>
       </c>
       <c r="K17" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="18">
@@ -2951,14 +3283,14 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>斎藤 陸</t>
+          <t>柴田 学</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -2971,20 +3303,20 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3時台</t>
+          <t>1時台</t>
         </is>
       </c>
       <c r="K18" s="3" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="19">
@@ -2997,11 +3329,11 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>上田 陸</t>
+          <t>斎藤 陸</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3011,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3023,7 +3355,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4時台</t>
+          <t>3時台</t>
         </is>
       </c>
       <c r="K19" s="3" t="n">
@@ -3033,43 +3365,215 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>中3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>上田 陸</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>60</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>45941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>高1</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>鈴木 良子</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>120</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>45942</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>高1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>4</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>山下 律</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>日</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>0時台</t>
         </is>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K22" s="3" t="n">
+        <v>45942</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>高3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>西村 陽翔</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>45942</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>高3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>45</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>橋本 恵</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4時台</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="n">
         <v>45942</v>
       </c>
     </row>
@@ -3228,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -3243,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3256,22 +3760,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3816,22 +4320,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
